--- a/Horarios/HorarioWAN.xlsx
+++ b/Horarios/HorarioWAN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\WAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102D9DE5-0385-4D1B-9386-04B5AD271BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269AF3D4-7891-4C3D-B2F0-C5B278B80954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -326,76 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,16 +335,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1651,7 +1651,7 @@
   <dimension ref="B1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1689,19 +1689,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1709,21 +1709,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1731,38 +1731,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1792,19 +1792,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1812,56 +1812,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="34"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -1891,19 +1891,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1911,56 +1911,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="36" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="35"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -1990,19 +1990,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2010,56 +2010,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="34"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="36" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="34"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2089,19 +2089,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="38" t="s">
+      <c r="D39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2109,54 +2109,77 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="34"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="34"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="34"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="35"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="23"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="C3:C5"/>
@@ -2173,29 +2196,6 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN.xlsx
+++ b/Horarios/HorarioWAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269AF3D4-7891-4C3D-B2F0-C5B278B80954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2DC06-BDDE-4CC3-AB8C-AF88EBF601BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -326,7 +326,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -344,76 +404,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1651,7 +1651,7 @@
   <dimension ref="B1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1689,19 +1689,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1709,21 +1709,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1731,38 +1731,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1792,19 +1792,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1812,56 +1812,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="11"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -1891,19 +1891,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1911,56 +1911,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="23" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="11"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="12"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -1990,19 +1990,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2010,56 +2010,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="11"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="11"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="12"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2089,19 +2089,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="37" t="s">
+      <c r="D39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2109,77 +2109,54 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="11"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="12"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="39"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="C3:C5"/>
@@ -2196,6 +2173,29 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN.xlsx
+++ b/Horarios/HorarioWAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2DC06-BDDE-4CC3-AB8C-AF88EBF601BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C5985-2BEB-4C64-8CE7-0EFFF40D5687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -326,67 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,16 +344,76 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39ED6EA-CDDC-4E42-9516-C7608D533FE2}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1689,19 +1689,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1709,21 +1709,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1731,38 +1731,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1792,19 +1792,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1812,56 +1812,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="31"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="31"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -1891,19 +1891,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1911,56 +1911,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="31"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="29" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -1990,19 +1990,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2010,56 +2010,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="31"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="29" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2089,19 +2089,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="D39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2109,54 +2109,77 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="31"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="31"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="31"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="32"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="23"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="C3:C5"/>
@@ -2173,29 +2196,6 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN.xlsx
+++ b/Horarios/HorarioWAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C5985-2BEB-4C64-8CE7-0EFFF40D5687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4492CCBD-8D38-4EF6-AE76-12BE4A25248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,7 +326,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -344,76 +407,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1651,7 +1645,7 @@
   <dimension ref="B1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F26"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1689,19 +1683,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1709,21 +1703,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1731,38 +1725,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1792,19 +1786,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1812,56 +1806,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="11"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="12"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -1891,19 +1885,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1911,56 +1905,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="23" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="11"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="12"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -1990,19 +1984,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2010,56 +2004,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="11"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="11"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="12"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2089,19 +2083,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="37" t="s">
+      <c r="D39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2109,77 +2103,54 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="11"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="12"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="39"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="C3:C5"/>
@@ -2196,6 +2167,29 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN.xlsx
+++ b/Horarios/HorarioWAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4492CCBD-8D38-4EF6-AE76-12BE4A25248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D490C20-F2A1-469E-B79F-E1F6892F96D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -326,70 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,7 +344,70 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39ED6EA-CDDC-4E42-9516-C7608D533FE2}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1683,19 +1683,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1703,21 +1703,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="34" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1725,38 +1725,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1786,19 +1786,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1806,56 +1806,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="32"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -1885,19 +1885,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1905,56 +1905,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="30" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="32"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="33"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -1984,19 +1984,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2004,56 +2004,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="32"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="30" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="32"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="27" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="33"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2083,19 +2083,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="D39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2103,54 +2103,77 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="32"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="32"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="32"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="33"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="23"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="C3:C5"/>
@@ -2167,29 +2190,6 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN.xlsx
+++ b/Horarios/HorarioWAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D490C20-F2A1-469E-B79F-E1F6892F96D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF2C71C-01CB-4385-8D65-C8B385CFE61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="35">
   <si>
     <t>3:00 - 4:00</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>MÓDULO 2</t>
+  </si>
+  <si>
+    <t>VISITA DATA CENTER "KIO"</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,7 +335,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -335,6 +407,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,70 +425,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39ED6EA-CDDC-4E42-9516-C7608D533FE2}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1683,19 +1701,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1703,21 +1721,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1725,38 +1743,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1786,19 +1804,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1806,56 +1824,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -1885,19 +1903,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1905,56 +1923,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="23" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="11"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="12"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -1984,19 +2002,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="D30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="E30" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2004,56 +2022,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="11"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="11"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="12"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="8"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2083,19 +2101,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="35" t="s">
+      <c r="D39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2103,77 +2121,56 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="11"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="12"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="37"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
+  <mergeCells count="40">
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="C3:C5"/>
@@ -2190,6 +2187,30 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
